--- a/docs/1-CRONOGRAMA.xlsx
+++ b/docs/1-CRONOGRAMA.xlsx
@@ -1,19 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27932"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pi_2_semestre\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304292A6-BF6E-4AA3-8941-67E7DBB22D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="cronograma" sheetId="1" r:id="rId4"/>
+    <sheet name="cronograma" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName hidden="1" localSheetId="0" name="_xlnm._FilterDatabase">cronograma!$A$1:$AC$998</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">cronograma!$A$1:$AC$998</definedName>
   </definedNames>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
   <si>
     <t>DATAS</t>
   </si>
@@ -49,43 +59,68 @@
   </si>
   <si>
     <t>Apresentação</t>
+  </si>
+  <si>
+    <t>22/08/2024 - 31/08/2024</t>
+  </si>
+  <si>
+    <t>01/09/2024 - 15/09/2024</t>
+  </si>
+  <si>
+    <t>16/09/2024 - 30/09/2024</t>
+  </si>
+  <si>
+    <t>01/10/2024 - 15/10/2024</t>
+  </si>
+  <si>
+    <t>16/10/2024 - 30/10/2024</t>
+  </si>
+  <si>
+    <t>01/11/2024 - 15/11/2024</t>
+  </si>
+  <si>
+    <t>16/11/2024 - 31/11/2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.0"/>
+      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -113,33 +148,43 @@
     </fill>
   </fills>
   <borders count="5">
-    <border/>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color rgb="FF000000"/>
       </right>
@@ -149,72 +194,82 @@
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="4" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf borderId="1" fillId="5" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="2" fillId="5" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="4" fillId="0" fontId="3" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+  <cellXfs count="15">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -404,52 +459,61 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:AC10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.0"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
-        <v>45526.0</v>
-      </c>
-      <c r="C1" s="2">
-        <v>45535.0</v>
-      </c>
-      <c r="D1" s="2">
-        <v>45536.0</v>
-      </c>
-      <c r="E1" s="2">
-        <v>45550.0</v>
-      </c>
-      <c r="F1" s="2">
-        <v>45551.0</v>
-      </c>
-      <c r="G1" s="2">
-        <v>45565.0</v>
-      </c>
-      <c r="H1" s="2">
-        <v>45566.0</v>
+      <c r="B1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>18</v>
       </c>
       <c r="I1" s="2">
-        <v>45580.0</v>
-      </c>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
+        <v>45629</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -469,256 +533,265 @@
       <c r="AB1" s="3"/>
       <c r="AC1" s="3"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="8"/>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
-      <c r="M2" s="8"/>
-      <c r="N2" s="8"/>
-      <c r="O2" s="8"/>
-      <c r="P2" s="8"/>
-      <c r="Q2" s="8"/>
-      <c r="R2" s="8"/>
-      <c r="S2" s="8"/>
-      <c r="T2" s="8"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="8"/>
-    </row>
-    <row r="3">
+      <c r="C2" s="12"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="6"/>
+      <c r="K2" s="6"/>
+      <c r="L2" s="6"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="6"/>
+      <c r="O2" s="6"/>
+      <c r="P2" s="6"/>
+      <c r="Q2" s="6"/>
+      <c r="R2" s="6"/>
+      <c r="S2" s="6"/>
+      <c r="T2" s="6"/>
+      <c r="U2" s="6"/>
+      <c r="V2" s="6"/>
+    </row>
+    <row r="3" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="5"/>
+      <c r="C3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="6"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="8"/>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
-      <c r="M3" s="8"/>
-      <c r="N3" s="8"/>
-      <c r="O3" s="8"/>
-      <c r="P3" s="8"/>
-      <c r="Q3" s="8"/>
-      <c r="R3" s="8"/>
-      <c r="S3" s="8"/>
-      <c r="T3" s="8"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="8"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="9" t="s">
+      <c r="D3" s="12"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+      <c r="R3" s="6"/>
+      <c r="S3" s="6"/>
+      <c r="T3" s="6"/>
+      <c r="U3" s="6"/>
+      <c r="V3" s="6"/>
+    </row>
+    <row r="4" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="10" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="6"/>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="6"/>
+      <c r="U4" s="6"/>
+      <c r="V4" s="6"/>
+    </row>
+    <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="8"/>
+      <c r="K5" s="8"/>
+      <c r="L5" s="6"/>
+      <c r="M5" s="6"/>
+      <c r="N5" s="6"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="6"/>
+      <c r="S5" s="6"/>
+      <c r="T5" s="6"/>
+      <c r="U5" s="6"/>
+      <c r="V5" s="6"/>
+    </row>
+    <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="8"/>
-      <c r="K4" s="8"/>
-      <c r="L4" s="8"/>
-      <c r="M4" s="8"/>
-      <c r="N4" s="8"/>
-      <c r="O4" s="8"/>
-      <c r="P4" s="8"/>
-      <c r="Q4" s="8"/>
-      <c r="R4" s="8"/>
-      <c r="S4" s="8"/>
-      <c r="T4" s="8"/>
-      <c r="U4" s="8"/>
-      <c r="V4" s="8"/>
-    </row>
-    <row r="5">
-      <c r="A5" s="12" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="10" t="s">
+      <c r="G6" s="13"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6"/>
+      <c r="M6" s="6"/>
+      <c r="N6" s="6"/>
+      <c r="O6" s="6"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+      <c r="V6" s="6"/>
+    </row>
+    <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="8"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8"/>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="12" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
-      <c r="I6" s="7"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="8"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8"/>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="8"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-      <c r="I7" s="7"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="8"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="12" t="s">
+      <c r="G7" s="13"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6"/>
+      <c r="M7" s="6"/>
+      <c r="N7" s="6"/>
+      <c r="O7" s="6"/>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+      <c r="V7" s="6"/>
+    </row>
+    <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-      <c r="I8" s="7"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="8"/>
-      <c r="P8" s="8"/>
-      <c r="Q8" s="8"/>
-      <c r="R8" s="8"/>
-      <c r="S8" s="8"/>
-      <c r="T8" s="8"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="8"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="12" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" s="9" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="13"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6"/>
+      <c r="M8" s="6"/>
+      <c r="N8" s="6"/>
+      <c r="O8" s="6"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+      <c r="V8" s="6"/>
+    </row>
+    <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-      <c r="I9" s="7"/>
-      <c r="J9" s="8"/>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8"/>
-      <c r="M9" s="8"/>
-      <c r="N9" s="8"/>
-      <c r="O9" s="8"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="8"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="12" t="s">
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="I9" s="5"/>
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6"/>
+      <c r="M9" s="6"/>
+      <c r="N9" s="6"/>
+      <c r="O9" s="6"/>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+      <c r="V9" s="6"/>
+    </row>
+    <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-      <c r="I10" s="7"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
-      <c r="M10" s="8"/>
-      <c r="N10" s="8"/>
-      <c r="O10" s="8"/>
-      <c r="P10" s="8"/>
-      <c r="Q10" s="8"/>
-      <c r="R10" s="8"/>
-      <c r="S10" s="8"/>
-      <c r="T10" s="8"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="8"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6"/>
+      <c r="M10" s="6"/>
+      <c r="N10" s="6"/>
+      <c r="O10" s="6"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+      <c r="V10" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="$A$1:$AC$998"/>
-  <mergeCells count="4">
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E4:I4"/>
-    <mergeCell ref="G5:I5"/>
+  <autoFilter ref="A1:AC998" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <mergeCells count="3">
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="F8:H8"/>
+    <mergeCell ref="F6:H6"/>
   </mergeCells>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/docs/1-CRONOGRAMA.xlsx
+++ b/docs/1-CRONOGRAMA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pi_2_semestre\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{304292A6-BF6E-4AA3-8941-67E7DBB22D20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DB121CA-9138-41B3-A332-7DE6FBEFEB25}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cronograma" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="18">
   <si>
     <t>DATAS</t>
   </si>
@@ -38,9 +38,6 @@
   </si>
   <si>
     <t>Escopo Sistema</t>
-  </si>
-  <si>
-    <t>working</t>
   </si>
   <si>
     <t>Requisitos</t>
@@ -136,14 +133,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA4C2F4"/>
-        <bgColor rgb="FFA4C2F4"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFF1C232"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF1C232"/>
-        <bgColor rgb="FFF1C232"/>
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor rgb="FFA4C2F4"/>
       </patternFill>
     </fill>
   </fills>
@@ -211,7 +208,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -231,24 +228,21 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="14" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -475,13 +469,13 @@
       <selection sqref="A1:I10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="9" max="11" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="9" max="11" width="15.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -489,31 +483,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="G1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>17</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>18</v>
       </c>
       <c r="I1" s="2">
         <v>45629</v>
       </c>
-      <c r="J1" s="10"/>
-      <c r="K1" s="10"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
       <c r="N1" s="3"/>
@@ -537,10 +531,10 @@
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="12"/>
+      <c r="B2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="9"/>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
@@ -566,10 +560,10 @@
         <v>3</v>
       </c>
       <c r="B3" s="5"/>
-      <c r="C3" s="11" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="12"/>
+      <c r="C3" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="9"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
@@ -595,14 +589,14 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="10" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
       <c r="H4" s="5"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="9"/>
       <c r="J4" s="6"/>
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
@@ -619,20 +613,20 @@
     </row>
     <row r="5" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>2</v>
       </c>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="8"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="7"/>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
       <c r="N5" s="6"/>
@@ -646,18 +640,18 @@
       <c r="V5" s="6"/>
     </row>
     <row r="6" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
-        <v>7</v>
+      <c r="A6" s="4" t="s">
+        <v>6</v>
       </c>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
-      <c r="F6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G6" s="13"/>
-      <c r="H6" s="14"/>
+      <c r="F6" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G6" s="12"/>
+      <c r="H6" s="13"/>
       <c r="I6" s="5"/>
       <c r="J6" s="6"/>
       <c r="K6" s="6"/>
@@ -674,18 +668,18 @@
       <c r="V6" s="6"/>
     </row>
     <row r="7" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>8</v>
+      <c r="A7" s="4" t="s">
+        <v>7</v>
       </c>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5"/>
-      <c r="F7" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G7" s="13"/>
-      <c r="H7" s="14"/>
+      <c r="F7" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G7" s="12"/>
+      <c r="H7" s="13"/>
       <c r="I7" s="5"/>
       <c r="J7" s="6"/>
       <c r="K7" s="6"/>
@@ -702,18 +696,18 @@
       <c r="V7" s="6"/>
     </row>
     <row r="8" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>9</v>
+      <c r="A8" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
       <c r="E8" s="5"/>
-      <c r="F8" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="G8" s="13"/>
-      <c r="H8" s="14"/>
+      <c r="F8" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G8" s="12"/>
+      <c r="H8" s="13"/>
       <c r="I8" s="5"/>
       <c r="J8" s="6"/>
       <c r="K8" s="6"/>
@@ -730,8 +724,8 @@
       <c r="V8" s="6"/>
     </row>
     <row r="9" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>10</v>
+      <c r="A9" s="4" t="s">
+        <v>9</v>
       </c>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -739,7 +733,7 @@
       <c r="E9" s="5"/>
       <c r="F9" s="5"/>
       <c r="G9" s="5"/>
-      <c r="H9" s="11" t="s">
+      <c r="H9" s="10" t="s">
         <v>2</v>
       </c>
       <c r="I9" s="5"/>
@@ -758,8 +752,8 @@
       <c r="V9" s="6"/>
     </row>
     <row r="10" spans="1:29" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>11</v>
+      <c r="A10" s="4" t="s">
+        <v>10</v>
       </c>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -768,7 +762,7 @@
       <c r="F10" s="5"/>
       <c r="G10" s="5"/>
       <c r="H10" s="5"/>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>2</v>
       </c>
       <c r="J10" s="6"/>
